--- a/xlsx/country_comparison/solidarity_support_pol_US_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_pol_US_share.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -470,477 +467,444 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.80964450411054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.643161004583753</v>
+        <v>0.838825010677334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.838825010677334</v>
+        <v>0.938437660681549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.938437660681549</v>
+        <v>0.813022979069467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813022979069467</v>
+        <v>0.737705665762542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.737705665762542</v>
+        <v>0.819942754959698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.819942754959698</v>
+        <v>0.873056146222153</v>
       </c>
       <c r="I2" t="n">
-        <v>0.873056146222153</v>
+        <v>0.773791371449113</v>
       </c>
       <c r="J2" t="n">
-        <v>0.773791371449113</v>
+        <v>0.806706821169026</v>
       </c>
       <c r="K2" t="n">
-        <v>0.806706821169026</v>
+        <v>0.738512934888585</v>
       </c>
       <c r="L2" t="n">
-        <v>0.738512934888585</v>
+        <v>0.808151291496163</v>
       </c>
       <c r="M2" t="n">
-        <v>0.808151291496163</v>
+        <v>0.931123356175572</v>
       </c>
       <c r="N2" t="n">
-        <v>0.931123356175572</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.563794665192873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.793302229139668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.735416680455217</v>
+        <v>0.773119065399444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.773119065399444</v>
+        <v>0.927892594886379</v>
       </c>
       <c r="E3" t="n">
-        <v>0.927892594886379</v>
+        <v>0.864078784351659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.864078784351659</v>
+        <v>0.634253837180658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.634253837180658</v>
+        <v>0.767899521650745</v>
       </c>
       <c r="H3" t="n">
-        <v>0.767899521650745</v>
+        <v>0.856662637816023</v>
       </c>
       <c r="I3" t="n">
-        <v>0.856662637816023</v>
+        <v>0.80190982641243</v>
       </c>
       <c r="J3" t="n">
-        <v>0.80190982641243</v>
+        <v>0.79452059282422</v>
       </c>
       <c r="K3" t="n">
-        <v>0.79452059282422</v>
+        <v>0.713267457651211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.713267457651211</v>
+        <v>0.779977469932862</v>
       </c>
       <c r="M3" t="n">
-        <v>0.779977469932862</v>
+        <v>0.91765670226024</v>
       </c>
       <c r="N3" t="n">
-        <v>0.91765670226024</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.51808890832465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.748783561969176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643467636668813</v>
+        <v>0.715478638358281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715478638358281</v>
+        <v>0.874576498840428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.874576498840428</v>
+        <v>0.782359594003317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.782359594003317</v>
+        <v>0.529845321786666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.529845321786666</v>
+        <v>0.719352832772282</v>
       </c>
       <c r="H4" t="n">
-        <v>0.719352832772282</v>
+        <v>0.773521954970104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.773521954970104</v>
+        <v>0.724550091724308</v>
       </c>
       <c r="J4" t="n">
-        <v>0.724550091724308</v>
+        <v>0.746662437874552</v>
       </c>
       <c r="K4" t="n">
-        <v>0.746662437874552</v>
+        <v>0.683886090364732</v>
       </c>
       <c r="L4" t="n">
-        <v>0.683886090364732</v>
+        <v>0.746047610561908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.746047610561908</v>
+        <v>0.884011688881497</v>
       </c>
       <c r="N4" t="n">
-        <v>0.884011688881497</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.453402045694884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.700580371227263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596616280151829</v>
+        <v>0.703637699243605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.703637699243605</v>
+        <v>0.874691058878406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874691058878406</v>
+        <v>0.720585612827971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.720585612827971</v>
+        <v>0.555253137704848</v>
       </c>
       <c r="G5" t="n">
-        <v>0.555253137704848</v>
+        <v>0.565647078769301</v>
       </c>
       <c r="H5" t="n">
-        <v>0.565647078769301</v>
+        <v>0.635964936582196</v>
       </c>
       <c r="I5" t="n">
-        <v>0.635964936582196</v>
+        <v>0.585971465473506</v>
       </c>
       <c r="J5" t="n">
-        <v>0.585971465473506</v>
+        <v>0.72107881154208</v>
       </c>
       <c r="K5" t="n">
-        <v>0.72107881154208</v>
+        <v>0.628482209415112</v>
       </c>
       <c r="L5" t="n">
-        <v>0.628482209415112</v>
+        <v>0.684753896310072</v>
       </c>
       <c r="M5" t="n">
-        <v>0.684753896310072</v>
+        <v>0.86203143431525</v>
       </c>
       <c r="N5" t="n">
-        <v>0.86203143431525</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.471193151072884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.699085587371477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625816461291422</v>
+        <v>0.689308517322073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.689308517322073</v>
+        <v>0.829575093901984</v>
       </c>
       <c r="E6" t="n">
-        <v>0.829575093901984</v>
+        <v>0.708330382280532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.708330382280532</v>
+        <v>0.44831062200648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44831062200648</v>
+        <v>0.564360282838369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.564360282838369</v>
+        <v>0.656346841758792</v>
       </c>
       <c r="I6" t="n">
-        <v>0.656346841758792</v>
+        <v>0.657746953380401</v>
       </c>
       <c r="J6" t="n">
-        <v>0.657746953380401</v>
+        <v>0.715243688792585</v>
       </c>
       <c r="K6" t="n">
-        <v>0.715243688792585</v>
+        <v>0.629641644435324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.629641644435324</v>
+        <v>0.681660037168233</v>
       </c>
       <c r="M6" t="n">
-        <v>0.681660037168233</v>
+        <v>0.839986172033593</v>
       </c>
       <c r="N6" t="n">
-        <v>0.839986172033593</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.458847635276405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.696623799252374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54606701844767</v>
+        <v>0.711257048966307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.711257048966307</v>
+        <v>0.830771903186052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.830771903186052</v>
+        <v>0.671384648630926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.671384648630926</v>
+        <v>0.519096523946397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.519096523946397</v>
+        <v>0.686942886007181</v>
       </c>
       <c r="H7" t="n">
-        <v>0.686942886007181</v>
+        <v>0.742202702288568</v>
       </c>
       <c r="I7" t="n">
-        <v>0.742202702288568</v>
+        <v>0.658450500259319</v>
       </c>
       <c r="J7" t="n">
-        <v>0.658450500259319</v>
+        <v>0.692567627290883</v>
       </c>
       <c r="K7" t="n">
-        <v>0.692567627290883</v>
+        <v>0.631151927095498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.631151927095498</v>
+        <v>0.74293484896282</v>
       </c>
       <c r="M7" t="n">
-        <v>0.74293484896282</v>
+        <v>0.806053340993667</v>
       </c>
       <c r="N7" t="n">
-        <v>0.806053340993667</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.468557448120917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.694896977800978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.618522481487951</v>
+        <v>0.731972612710365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.731972612710365</v>
+        <v>0.873423556917654</v>
       </c>
       <c r="E8" t="n">
-        <v>0.873423556917654</v>
+        <v>0.787425451430045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.787425451430045</v>
+        <v>0.586505829048438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.586505829048438</v>
+        <v>0.643460694813484</v>
       </c>
       <c r="H8" t="n">
-        <v>0.643460694813484</v>
+        <v>0.715145780417729</v>
       </c>
       <c r="I8" t="n">
-        <v>0.715145780417729</v>
+        <v>0.682980405531271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.682980405531271</v>
+        <v>0.747786179410038</v>
       </c>
       <c r="K8" t="n">
-        <v>0.747786179410038</v>
+        <v>0.6286501643847</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6286501643847</v>
+        <v>0.6953146471654</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6953146471654</v>
+        <v>0.861220065079599</v>
       </c>
       <c r="N8" t="n">
-        <v>0.861220065079599</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.454492739666233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.683123223291107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.553640103437198</v>
+        <v>0.671370821981205</v>
       </c>
       <c r="D9" t="n">
-        <v>0.671370821981205</v>
+        <v>0.849473568651974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.849473568651974</v>
+        <v>0.708494397058127</v>
       </c>
       <c r="F9" t="n">
-        <v>0.708494397058127</v>
+        <v>0.438857180180676</v>
       </c>
       <c r="G9" t="n">
-        <v>0.438857180180676</v>
+        <v>0.514556584884823</v>
       </c>
       <c r="H9" t="n">
-        <v>0.514556584884823</v>
+        <v>0.656047851343109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.656047851343109</v>
+        <v>0.60344269229444</v>
       </c>
       <c r="J9" t="n">
-        <v>0.60344269229444</v>
+        <v>0.678282914890908</v>
       </c>
       <c r="K9" t="n">
-        <v>0.678282914890908</v>
+        <v>0.583152655955539</v>
       </c>
       <c r="L9" t="n">
-        <v>0.583152655955539</v>
+        <v>0.669358374420139</v>
       </c>
       <c r="M9" t="n">
-        <v>0.669358374420139</v>
+        <v>0.830923870403501</v>
       </c>
       <c r="N9" t="n">
-        <v>0.830923870403501</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.343601913157298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.682371653787096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.606023872797876</v>
+        <v>0.695056499414707</v>
       </c>
       <c r="D10" t="n">
-        <v>0.695056499414707</v>
+        <v>0.889808085182302</v>
       </c>
       <c r="E10" t="n">
-        <v>0.889808085182302</v>
+        <v>0.689889885121084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.689889885121084</v>
+        <v>0.648147298677417</v>
       </c>
       <c r="G10" t="n">
-        <v>0.648147298677417</v>
+        <v>0.698572259799889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.698572259799889</v>
+        <v>0.770942809545018</v>
       </c>
       <c r="I10" t="n">
-        <v>0.770942809545018</v>
+        <v>0.710087508866346</v>
       </c>
       <c r="J10" t="n">
-        <v>0.710087508866346</v>
+        <v>0.712996223357133</v>
       </c>
       <c r="K10" t="n">
-        <v>0.712996223357133</v>
+        <v>0.622890907738126</v>
       </c>
       <c r="L10" t="n">
-        <v>0.622890907738126</v>
+        <v>0.661649896053245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.661649896053245</v>
+        <v>0.841576010118254</v>
       </c>
       <c r="N10" t="n">
-        <v>0.841576010118254</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.450190602157014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.526444294027161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.458770252949589</v>
+        <v>0.483587107052056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.483587107052056</v>
+        <v>0.710735738553578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.710735738553578</v>
+        <v>0.530926465800458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.530926465800458</v>
+        <v>0.403161005281796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.403161005281796</v>
+        <v>0.432517119215557</v>
       </c>
       <c r="H11" t="n">
-        <v>0.432517119215557</v>
+        <v>0.485374406010005</v>
       </c>
       <c r="I11" t="n">
-        <v>0.485374406010005</v>
+        <v>0.474756209508454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.474756209508454</v>
+        <v>0.530901450328853</v>
       </c>
       <c r="K11" t="n">
-        <v>0.530901450328853</v>
+        <v>0.465060745727168</v>
       </c>
       <c r="L11" t="n">
-        <v>0.465060745727168</v>
+        <v>0.475175961400892</v>
       </c>
       <c r="M11" t="n">
-        <v>0.475175961400892</v>
+        <v>0.673509672793868</v>
       </c>
       <c r="N11" t="n">
-        <v>0.673509672793868</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.338595491710254</v>
       </c>
     </row>
